--- a/data/hotels_by_city/Dallas/Dallas_shard_104.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_104.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="390">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Kelly N</t>
+  </si>
+  <si>
     <t>06/06/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>DonkArizona</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r539764550-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t>When we drove up to the hotel, the parking area near the front door was taped off as the roof had fallen down. Check in was easy but as we entered our room, there were a few dead roaches in the bathroom. The room was a nice size but the bed sheets had some black spots all over but could be brushed off, not sure what it was. Woke up the next day and another roach had crawled in to the bathroom after already cleaning up the others. We then noticed black spots in the sink just like on the bed sheets. If in the area again, we will look elsewhere.More</t>
   </si>
   <si>
+    <t>anywho46</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r519674012-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
   </si>
   <si>
@@ -219,6 +228,9 @@
     <t>August 2017</t>
   </si>
   <si>
+    <t>TheYuckster</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r497201392-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
   </si>
   <si>
@@ -243,6 +255,9 @@
     <t>I will start off by saying that the person at the front desk was great. I ended up having to change rooms because the first room I was put in had black smears all over the table, and BOTH beds were stained and dirty...the sheets...the part you lay on. I was then moved to a second room that smelled like burned something. The breakfast was not good. Waffles and an empty coffee container. The person doing the breakfast just looked at me as I tried to squeeze the last of the coffee and did not say "oh, I will refill it". The person who took care of the breakfast had her blue tooth on, I guess she was on the phone. Will not be staying here again.More</t>
   </si>
   <si>
+    <t>HERMAN C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r471953593-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
   </si>
   <si>
@@ -261,6 +276,9 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>Sue7043</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r457463125-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
   </si>
   <si>
@@ -282,6 +300,9 @@
     <t>We went to visit family and hadn't stayed at this Comfort Suites mostly because of previous reviews and I was skeptical. We took the chance and stayed there this time and do not regret it at all! The folks at the desk were very pleasant and most helpful, the room was huge and very well kept. The bed was very comfortable and pillows excellent. The breakfast sure beat the one at the other major chain we had stayed at there in town as well and the staff in the dining area were so very polite and attentive. My only issue was when we first arrived and checked in went to the elevator pushed the 2nd floor button and the elevator didnt move nor did the light turn on, so we opened the door tried it again with another floor worked fine came back down pushed 2nd floor again and no movement, so we got out of the elevator quickly as I am very claustrophobic and went right to the desk and the young man was so kind went back in the elevator with my husband pushed the button like 3 or 4 times and it worked for him! I was so upset asked for another room on a different floor and they were sold out and the young man was so kind told us of the steps and apologized profusely. Well I calmed down and we used the stairs! It...We went to visit family and hadn't stayed at this Comfort Suites mostly because of previous reviews and I was skeptical. We took the chance and stayed there this time and do not regret it at all! The folks at the desk were very pleasant and most helpful, the room was huge and very well kept. The bed was very comfortable and pillows excellent. The breakfast sure beat the one at the other major chain we had stayed at there in town as well and the staff in the dining area were so very polite and attentive. My only issue was when we first arrived and checked in went to the elevator pushed the 2nd floor button and the elevator didnt move nor did the light turn on, so we opened the door tried it again with another floor worked fine came back down pushed 2nd floor again and no movement, so we got out of the elevator quickly as I am very claustrophobic and went right to the desk and the young man was so kind went back in the elevator with my husband pushed the button like 3 or 4 times and it worked for him! I was so upset asked for another room on a different floor and they were sold out and the young man was so kind told us of the steps and apologized profusely. Well I calmed down and we used the stairs! It was all and all a great stay!More</t>
   </si>
   <si>
+    <t>Pamelita7117</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r435340651-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
   </si>
   <si>
@@ -300,6 +321,9 @@
     <t>November 2016</t>
   </si>
   <si>
+    <t>Bob B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r434055435-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
   </si>
   <si>
@@ -318,6 +342,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>DianaSATX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r424455084-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
   </si>
   <si>
@@ -342,6 +369,9 @@
     <t>Nice hotel located in quiet field close to highway intersection and short drive to Canton for First Monday Trade Days.  Also convenient to Cedar Creek Lake.  Room was spacious and clean.  Beds were very comfortable.  Staff was very friendly and helpful.  Hotel lobby ceiling appeared to still be in need of repair after recent Spring hail storm.  Otherwise very nice and clean.  Free breakfast provided offering waffles, eggs, sausage, cereal, yogurt and various breads.  Good enough for someone who isn't a big breakfast eater.Only complaint was indoor pool.  Hot tub had chunks chipped out of it and tile around rim was dirty. Didn't notice until after I sat in hot tub, so climbed out and just put legs in.   Pool floor was not very clean and water was extremely cold.  Too cold to swim.With exception of pool a nice place to stay.More</t>
   </si>
   <si>
+    <t>crazymomof2grls</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r413935583-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
   </si>
   <si>
@@ -357,6 +387,9 @@
     <t>The hotel had comfortable rooms that were good sized.  Breakfast was fine for a quick bite.  It was conveniently located.  Our family had 3 rooms, and everyone haf a good stay.  Would definitely stay there again.</t>
   </si>
   <si>
+    <t>K9sniffer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r379216258-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
   </si>
   <si>
@@ -378,6 +411,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Jane S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r376887121-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
   </si>
   <si>
@@ -399,6 +435,9 @@
     <t>Stayed here many times for business purposes. Hotel is clean and relatively inexpensive, but there are some flaws here and there. The swallows nest under the roof overhang which leaves the sidewalk full of bird droppings. Not cute. The sun pieces through the east facing rooms (front of hotel) and can be a rude awakening in the early morning. The breakfast buffet doesn't offer a wide selection of food and its always the same. The indoor pool is overly chlorinated so be sure to rinse our your swim suit after use. This hotel is average and I don't expect much when I visit. Would be great if they could improve wifi.More</t>
   </si>
   <si>
+    <t>Ane R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r371570256-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
   </si>
   <si>
@@ -418,6 +457,9 @@
   </si>
   <si>
     <t>The Hotel has some issues. First they mowed down some trees, and left birds homeless, so of course the birds made nests under the eaves, and now poop on guests, the guest cars, and screech endlessly. The Manager is a lovely woman but she she has some issues with the help. Housekeeping will pass you by and NOT return if you have out the Do Not Disturb sign, even if you remove it and the y promise in writing to come back and do the room, they won't. Elsa King the housekeeper promised to check back and do the room but 12:00 noon came and went and nothing!  Had to beg for service from a very inexperienced desk clerk who was snotty about it, and finally ended up doing the room,. But not very well. No vacuum, no soap, no shampoo, etc. Doubt I will come back here again, and it's a shame.More</t>
+  </si>
+  <si>
+    <t>Arnold_Ziffel</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r364693468-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
@@ -447,6 +489,9 @@
 The building itself is suffering from water infiltration, leaving bad water stains in the top of the lobby.  The back porch just outside the back door is not only water stained but sagging.  These buildings are built out of Styrofoam and paper maché under stucco, and the tiniest leak cannot be...Choice Hotels is a brand I hardly know.  I've only recently begun to use them only because of location.  And, in 100% of those visits, the room quality was plenty good, but some idiosyncrasy about the ownership or their processes wound up throwing me overboard.  For me, it's typical to check in on a credit card, to establish guaranteed payment, then check out with cash.  This place did not warn me, and ran the total amount on my credit card.  Then, when I wanted to pay cash, they told me they don't accept cash.  However, the day before they were accepting cash for the canteen.  I call that double-standards.  I’m not accustomed to name brand chain hotels acting like Motel 6 or Super 8, but this one certainly is. I would like to commend the breakfast attendant for going beyond the call of duty. She was very interested in your liking your breakfast within the boundaries of the food in her kitchen.  I was duly impressed with her concern about the quality and conditions within her control.  I don't know what her name was, but hats off to her!The building itself is suffering from water infiltration, leaving bad water stains in the top of the lobby.  The back porch just outside the back door is not only water stained but sagging.  These buildings are built out of Styrofoam and paper maché under stucco, and the tiniest leak cannot be ignored.For reasons unknown, the cliff swallows have decided they like this place.  Hundreds of them have nested up at the top of the building.  They are a harmless little bird, but allowing them to nest on the building probably has a price tag.  But, there sure were a lot of them. Would I go back…maybe. Would I recommend them…maybe.  The room size was enormous, and things were in pretty good shape, but I left there less than delighted with them.More</t>
   </si>
   <si>
+    <t>DeeSteveTravels</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r356155097-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
   </si>
   <si>
@@ -465,6 +510,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>robertrj2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r337571272-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
   </si>
   <si>
@@ -483,6 +531,9 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>David L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r334156882-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
   </si>
   <si>
@@ -501,6 +552,9 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>Danny D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r282621003-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
   </si>
   <si>
@@ -519,6 +573,9 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>meda9s</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r275840819-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
   </si>
   <si>
@@ -540,6 +597,9 @@
     <t>My wife and I stayed here with some of our family over the weekend. I was very impressed with the hotel. It looks brand-new and is very nice inside. We were on the 3rd floor and the first thing you smell coming off the elevators is that new carpet smell. The rooms were very nice. The front desk attendant was very friendly and was able to give us a map with places to eat. The beds were a little high off the ground but very comfortable. There were plenty of pillows and the AC worked very well. There was a separate sitting area with couch and chairs and the TV had plenty of channels. The wifi was good and no issues. The bathroom was nice. Plenty of room and the shower had good water pressure. There was some issues with the water draining but it was just slow and no big deal. The complimentary breakfast they have was good. Cereal, waffles, scrambled eggs, and sausage. There was an attendant down by the food to assist you if there are any problems.  Overall a great place to stay. There are not very many options in Mabank so save yourself some time and just get you a room at the Comfort Suites.More</t>
   </si>
   <si>
+    <t>535kimmOH</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r267073440-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
   </si>
   <si>
@@ -558,6 +618,9 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>Lisamd01</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r266690444-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
   </si>
   <si>
@@ -573,6 +636,9 @@
     <t>Nora and Melissa made our hotel stay this weekend amazing! During our stay we had a hail storm and 70 mile an hour winds the staff was great at keeping things under control and guests safe! Cant possibly fit all the positives in 1 review! All I can say is that we highly recommend this hotel!</t>
   </si>
   <si>
+    <t>katie g</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r263286523-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
   </si>
   <si>
@@ -591,6 +657,9 @@
     <t>March 2015</t>
   </si>
   <si>
+    <t>Lori K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r245008910-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
   </si>
   <si>
@@ -609,6 +678,9 @@
     <t>December 2014</t>
   </si>
   <si>
+    <t>MaybeinOz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r242386697-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
   </si>
   <si>
@@ -627,6 +699,9 @@
     <t>November 2014</t>
   </si>
   <si>
+    <t>Molly J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r235204418-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
   </si>
   <si>
@@ -645,6 +720,9 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>Jerry B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r232250008-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
   </si>
   <si>
@@ -669,6 +747,9 @@
     <t>Went to First Monday Trade Day (flea market) at Canton TX. Comfort Suites was best place near Canton. Comfortable bed. Beautiful large room. Breakfast was same old choices but the BIG pleasant surprise was staff made extra fluffy scrambled eggs and waffle was super fluffy as well. They say tomorrow Friday will be French Toast. Can't wait. More</t>
   </si>
   <si>
+    <t>Vthompson410</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r218557362-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
   </si>
   <si>
@@ -696,6 +777,9 @@
     <t>I was very surprised to find such a nice hotel room in this part of Texas. I was expecting more of a Motel 6 kind of room and got a clean, spacious comfortable room. I have to say that it was a bit pricey as it cost about the same as a 4 star hotel in Barcelona, Spain, but I have to remember that hotels are hard to find in this area. So, I guess the price was not unusually high.Loved the beds being so tall, although being short is a bit of a disadvantage. Just climb up the side and enjoy the comfort.The room was large enough that a family could stay in it and not be crowded. Glad it was just me though!More</t>
   </si>
   <si>
+    <t>CharcatB</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r216927767-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
   </si>
   <si>
@@ -723,6 +807,9 @@
     <t>I reserved 11 rooms for a weekend retreat at this hotel. I considered it a plus that it was away from the city center.  The location would allow us to focus on the tasks we needed to cover.The manager, Christine, was easy to work with.  The staff, especially, Aleia(sp), were top notch.  They were helpful from the time I made the reservation until we checked out.  The hotel's meeting room is very large and has countertops that made it easy for us to distribute materials and serve snacks.  We had a meeting for 60 people and the room accommodated us all very well. The rooms were first rate. Everyone who stayed over night commented on how large and nice the rooms were. All reported they'd slept well. My group was very pleased with all that was done to make our stay and meeting a good experience.  Thank you all.More</t>
   </si>
   <si>
+    <t>txrangersfan1981</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r210351143-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
   </si>
   <si>
@@ -732,6 +819,9 @@
     <t>June 14, 2014</t>
   </si>
   <si>
+    <t>gmariko</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r207651972-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
   </si>
   <si>
@@ -756,6 +846,9 @@
     <t>This hotel has a very friendly staff and the rooms are beautiful! Wouldn't stay anywhere else.Stayed for the weekend loved it! :-)The pool was clean and even made use of the exercise room.I also enjoyed the breakfast they offer. Saved us from having to spend eating out. More</t>
   </si>
   <si>
+    <t>freezequeen55</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r206859860-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
   </si>
   <si>
@@ -781,6 +874,9 @@
   </si>
   <si>
     <t>The hotel itself was very nice,  the rooms were great and bed so comfortable.  The staff was so helpful and accommodating in every respect.  We had a wedding party staying there and they we so nice.  The pool area was clean and nice and the breakfast was very good.More</t>
+  </si>
+  <si>
+    <t>linda g</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r205468994-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
@@ -813,6 +909,9 @@
 Since we had to be somewhere early, I asked for a late checkout so that we wouldn't...Arrived at the hotel fairly late on a Friday night.  Greeted by a very nice desk lady, who acknowledged us as being reward customers.  The first room she gave us was on the 2nd floor.  I asked how many floors the hotel had, and she said 3.  I asked to be moved to the top to avoid any potential for overhead noise.  She obliged.  We were surprised at the size of the room.  Plenty of room for me and two kids.  We noticed that the sofabed was not made up, and there was no sheets or blankets in the room.  We were too tired to call, so we just piled into the King bed.  Seems they should keep the sofabeds made up?My children commented that the bed was kind of hard.  None of us had any problem sleeping though.  The hotel was mostly empty, so it was extremely quiet.  The third floor drink machine was out of water, so that was a bummer.  We had to get up @6 on Saturday morning.  Breakfast doesn't start until 7, so I dropped by the front desk to see if they could get the kids some muffins or something.  We got plenty of muffins, and whatever else we wanted (aside from the hot items that were not ready yet).  So the food was much appreciated!Since we had to be somewhere early, I asked for a late checkout so that we wouldn't have to check out at dawn.  We were allowed to stay until 2, so we were able to come back after our activity and check out at our leisure.Very nice, clean, quiet property.  All the staff we encountered were friendly and helpful.  Just wish there were snacks on premises, as there isn't much food close by.  But we will be staying here again when in the area.More</t>
   </si>
   <si>
+    <t>Rex T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r202082043-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
   </si>
   <si>
@@ -840,6 +939,9 @@
     <t>We stayed 4-19-14.  The pool was about 55-60 degrees.  The hot tub had so much chlorine in it when running the pumps everyone in  it was coughing and their eyes were burning so the pumps were turned back off.  when we said something to the front desk clerk he said he couldn't do anything to change it,  It was out of his control.  Instead of swimming the next morning, we opted on leaving.More</t>
   </si>
   <si>
+    <t>Jeff R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r163575410-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
   </si>
   <si>
@@ -858,6 +960,9 @@
     <t>June 2013</t>
   </si>
   <si>
+    <t>MoCity_12</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r148588304-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
   </si>
   <si>
@@ -873,6 +978,9 @@
     <t xml:space="preserve">Biggest plus-this is a quiet hotel. Therooms are spacious. There is at microwave, fridge, and a sofa. Negatives - dead silverfish in the bathroom, toilet seat obviously dirty. I cleaned it. Bring your own pillow if you can. Their pillows are tiny squares. Breakfast had many choices. </t>
   </si>
   <si>
+    <t>Stephen A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r142701289-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
   </si>
   <si>
@@ -894,6 +1002,9 @@
     <t>I stayed in room 211. I'd recommend it. This place is huge. But its Texas &amp; everything is. It's a fair walk to anything that's food / drink at night. The looby of the hotel is impressive with extra-large USA and  TEXAN flags on display. The massive rooms are clean &amp; comfortable. Slightly more pricey than others - at $92.66 for the night ( but I was sharing ) . It's well worth it though - the Pool &amp; Jacuzzi are the best I've been in. we had the pool area all to ourselves. In the morning the lady sorting out the breakfasts was really nice. Great food as well.  A perfect stay. This is a definite on my list !00%.More</t>
   </si>
   <si>
+    <t>Katie K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r141953247-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
   </si>
   <si>
@@ -912,6 +1023,9 @@
     <t>September 2012</t>
   </si>
   <si>
+    <t>Brent S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r133784299-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
   </si>
   <si>
@@ -933,6 +1047,9 @@
     <t>Stayed here after a day at Ceder Creek Lake.  The hotel is very new.  The rooms are very nice with new furnishings.  Flat screen LG TV, Mini Fridge, and Microwave appear to be standard.   I will echo the sentiments of another reviewer....this hotel is very quiet.  The bed also was very comfortable. The breakfast was adequate and typical of most complimentary breakfasts at hotels of this type.  My only negatives were that the elevator was slow and they did not seem to be running the air conditioning in the hallways on the upper floors.  Very minor things that really did not affect much.   My wife did not care for the size of the pillows....some small square things.Overall, I would recommend this to anyone going to the Cedar Creek Lake or the Canton Trade Days.More</t>
   </si>
   <si>
+    <t>Rhonda S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r133542695-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
   </si>
   <si>
@@ -948,6 +1065,9 @@
     <t>We stayed here on a trip to the Canton Trade Days. It was only a 20 minute drive to Canton. The room was nice, clean and cool. The bed was very comfy. The hotel was pretty quiet and located right off a main road. There is an indoor pool/jacuzzi area that was well kept. The breakfast was really good with waffles/bacon/eggs, fresh fruit. Only draw back was that there are very limited places to eat out other than fast food. Overall nice hotel and would stay again.</t>
   </si>
   <si>
+    <t>Linda B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r127703642-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
   </si>
   <si>
@@ -969,6 +1089,9 @@
     <t>We stayed one night for a wedding nearby. Normally I wouldn't rate a hotel in a lower class so high, but this one was exceptional for the price. The rooms (suites) were large with a separate seating area, included a refrig &amp; microwave, everything in new condition and very clean. They served a full breakfast which included several hot items. The staff was friendly and the hotel was very laid-back. But the main reason I gave this hotel five stars is that it was QUIET... you could not hear through the walls. The room right next door to ours was having a party (we went to it for awhile) but you could not hear a thing from inside our room!  This is truly unheard of in a hotel. I had always just resolved myself to the fact that we would be awakened by noise from other rooms in a hotel. Not anymore!!  They set a new standard. My only complaint would be the really slow elevators. But for the super low price, you can't beat it!More</t>
   </si>
   <si>
+    <t>Vulcandude</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r86597407-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
   </si>
   <si>
@@ -987,6 +1110,9 @@
     <t>October 2010</t>
   </si>
   <si>
+    <t>Sportsmom76</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r80581659-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
   </si>
   <si>
@@ -1005,6 +1131,9 @@
     <t>September 2010</t>
   </si>
   <si>
+    <t>mikeag96</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r67481145-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
   </si>
   <si>
@@ -1026,6 +1155,9 @@
     <t>Very new hotel, has potential, but there were lots of problems.  Seems like things were done "on the cheap" to finish the hotel.  The air conditioner did not properly cool the room (think it was too small), there were exposed wires in our room.  The gym equipment was not working properly.  The pool had a big sign not to operate the hot tub.  The breakfast was consistently out of food.  This was not their fault, but they had water in the lobby during the week before we stayed there, so there were giant fans everywhere.  The hallway was not air conditioned, so waiting for the elevator was very hot.That being said, the rooms were finished out decently, and the beds were comfortable.  I had a steak from the "restaurant" (actually just the breakfast area with a few menu items during the evening) that was actually very good.  We might stay here again, but there is much to fix about this hotel.More</t>
   </si>
   <si>
+    <t>mygetaway</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r65965882-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
   </si>
   <si>
@@ -1045,6 +1177,9 @@
   </si>
   <si>
     <t>The price was right.  We spent $99 for two queen beds and sleeper sofa.  We are seniors traveling with our 2 small grandchildren.  The beds were comfortable.  Linens for the sleeper sofa had to be picked up at desk, but this was easy to do.  The breakfast was good but the cook had to really hustle to keep up with dwindling supplies (holiday weekend crowd).  Nice workout room.  Pool was standard indoor.  Small but useful after a hot day.  Hall noise due to family atmosphere.Complained to Comfort staff about unlocked laundry chutes on each floor.   Laundry was expensive (minimum of $2.00 to dry bathing suits that hadn't dried overnight.  No handy restaurants next door, but can be found about 5 - 10 minutes away.More</t>
+  </si>
+  <si>
+    <t>MrsDT91</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r60701117-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
@@ -1567,43 +1702,47 @@
       <c r="A2" t="n">
         <v>60314</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>11336</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>4</v>
@@ -1621,50 +1760,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>60314</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>125658</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1682,50 +1825,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>60314</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>125659</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1739,50 +1886,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>60314</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>17104</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
@@ -1802,50 +1953,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>60314</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>83974</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1863,50 +2018,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>60314</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>125660</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="n">
         <v>4</v>
@@ -1924,50 +2083,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>60314</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>125661</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="K8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="L8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="n">
         <v>3</v>
@@ -1987,50 +2150,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>60314</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>15091</v>
+      </c>
+      <c r="C9" t="s">
+        <v>101</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="J9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="K9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="L9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="O9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="n">
@@ -2050,50 +2217,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>60314</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>125662</v>
+      </c>
+      <c r="C10" t="s">
+        <v>108</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="J10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="K10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="L10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="O10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="n">
@@ -2113,50 +2284,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>60314</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>125663</v>
+      </c>
+      <c r="C11" t="s">
+        <v>117</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="J11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="L11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2170,50 +2345,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>60314</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>2862</v>
+      </c>
+      <c r="C12" t="s">
+        <v>123</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="J12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="K12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="L12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="O12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2227,50 +2406,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>60314</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>7193</v>
+      </c>
+      <c r="C13" t="s">
+        <v>131</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="J13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="K13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="L13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="O13" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2288,50 +2471,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>60314</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>125664</v>
+      </c>
+      <c r="C14" t="s">
+        <v>139</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="J14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="K14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="L14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="n">
         <v>3</v>
@@ -2351,50 +2538,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>60314</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>40909</v>
+      </c>
+      <c r="C15" t="s">
+        <v>147</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="J15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="K15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="L15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="O15" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
@@ -2414,50 +2605,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>60314</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>125665</v>
+      </c>
+      <c r="C16" t="s">
+        <v>155</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="J16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="K16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="L16" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
@@ -2477,50 +2672,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>60314</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>125666</v>
+      </c>
+      <c r="C17" t="s">
+        <v>162</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="J17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="K17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="L17" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -2544,50 +2743,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>60314</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>5027</v>
+      </c>
+      <c r="C18" t="s">
+        <v>169</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="J18" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="K18" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="L18" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="O18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2601,50 +2804,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>60314</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>82152</v>
+      </c>
+      <c r="C19" t="s">
+        <v>176</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="J19" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="K19" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="L19" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="n">
         <v>4</v>
@@ -2662,50 +2869,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>60314</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>125667</v>
+      </c>
+      <c r="C20" t="s">
+        <v>183</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="J20" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="K20" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="L20" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="n">
@@ -2725,50 +2936,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>60314</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>125668</v>
+      </c>
+      <c r="C21" t="s">
+        <v>191</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="J21" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="K21" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="L21" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -2782,50 +2997,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>60314</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>125669</v>
+      </c>
+      <c r="C22" t="s">
+        <v>198</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="J22" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="K22" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="L22" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -2839,50 +3058,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>60314</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>125670</v>
+      </c>
+      <c r="C23" t="s">
+        <v>204</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="J23" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="K23" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="L23" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -2896,50 +3119,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>60314</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>8237</v>
+      </c>
+      <c r="C24" t="s">
+        <v>211</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="J24" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="K24" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="L24" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="n">
@@ -2959,50 +3186,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>60314</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>125671</v>
+      </c>
+      <c r="C25" t="s">
+        <v>218</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="J25" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="K25" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="L25" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="O25" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3016,50 +3247,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>60314</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>125672</v>
+      </c>
+      <c r="C26" t="s">
+        <v>225</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="J26" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="K26" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="L26" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="O26" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -3079,41 +3314,45 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>60314</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>18833</v>
+      </c>
+      <c r="C27" t="s">
+        <v>232</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="J27" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="K27" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="L27" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
@@ -3140,56 +3379,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="X27" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="Y27" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>60314</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>125673</v>
+      </c>
+      <c r="C28" t="s">
+        <v>241</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="J28" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="K28" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="L28" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="O28" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -3207,56 +3450,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="X28" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="Y28" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>60314</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>125674</v>
+      </c>
+      <c r="C29" t="s">
+        <v>251</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="J29" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="K29" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="L29" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="O29" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3272,41 +3519,45 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="X29" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="Y29" t="s">
-        <v>232</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>60314</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>125675</v>
+      </c>
+      <c r="C30" t="s">
+        <v>261</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="J30" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="K30" t="s"/>
       <c r="L30" t="s"/>
@@ -3322,42 +3573,43 @@
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s"/>
-      <c r="X30" t="s"/>
-      <c r="Y30" t="s"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>60314</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>125676</v>
+      </c>
+      <c r="C31" t="s">
+        <v>265</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="J31" t="s">
-        <v>238</v>
+        <v>268</v>
       </c>
       <c r="K31" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="L31" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
@@ -3384,56 +3636,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="X31" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="Y31" t="s">
-        <v>243</v>
+        <v>273</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>60314</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>125677</v>
+      </c>
+      <c r="C32" t="s">
+        <v>274</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="J32" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="K32" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="L32" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -3455,56 +3711,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="X32" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="Y32" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>60314</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>125678</v>
+      </c>
+      <c r="C33" t="s">
+        <v>284</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
       <c r="J33" t="s">
-        <v>255</v>
+        <v>287</v>
       </c>
       <c r="K33" t="s">
-        <v>256</v>
+        <v>288</v>
       </c>
       <c r="L33" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
@@ -3526,56 +3786,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>258</v>
+        <v>290</v>
       </c>
       <c r="X33" t="s">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c r="Y33" t="s">
-        <v>260</v>
+        <v>292</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>60314</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>125679</v>
+      </c>
+      <c r="C34" t="s">
+        <v>293</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>261</v>
+        <v>294</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="J34" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="K34" t="s">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="L34" t="s">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="M34" t="n">
         <v>2</v>
       </c>
       <c r="N34" t="s">
-        <v>266</v>
+        <v>299</v>
       </c>
       <c r="O34" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="P34" t="n">
         <v>2</v>
@@ -3597,56 +3861,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="X34" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="Y34" t="s">
-        <v>269</v>
+        <v>302</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>60314</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>15230</v>
+      </c>
+      <c r="C35" t="s">
+        <v>303</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>271</v>
+        <v>305</v>
       </c>
       <c r="J35" t="s">
-        <v>272</v>
+        <v>306</v>
       </c>
       <c r="K35" t="s">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="L35" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>275</v>
+        <v>309</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="n">
         <v>4</v>
@@ -3670,41 +3938,45 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>60314</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>125680</v>
+      </c>
+      <c r="C36" t="s">
+        <v>310</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="J36" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="K36" t="s">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="L36" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="M36" t="n">
         <v>3</v>
@@ -3733,50 +4005,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>60314</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>54534</v>
+      </c>
+      <c r="C37" t="s">
+        <v>316</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>281</v>
+        <v>317</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="J37" t="s">
-        <v>283</v>
+        <v>319</v>
       </c>
       <c r="K37" t="s">
-        <v>284</v>
+        <v>320</v>
       </c>
       <c r="L37" t="s">
-        <v>285</v>
+        <v>321</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>286</v>
+        <v>322</v>
       </c>
       <c r="O37" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -3800,50 +4076,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>287</v>
+        <v>323</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>60314</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>34400</v>
+      </c>
+      <c r="C38" t="s">
+        <v>324</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>288</v>
+        <v>325</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="J38" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="K38" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="L38" t="s">
-        <v>292</v>
+        <v>329</v>
       </c>
       <c r="M38" t="n">
         <v>2</v>
       </c>
       <c r="N38" t="s">
-        <v>293</v>
+        <v>330</v>
       </c>
       <c r="O38" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P38" t="n">
         <v>3</v>
@@ -3867,50 +4147,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>292</v>
+        <v>329</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>60314</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>18497</v>
+      </c>
+      <c r="C39" t="s">
+        <v>331</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>294</v>
+        <v>332</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>295</v>
+        <v>333</v>
       </c>
       <c r="J39" t="s">
-        <v>296</v>
+        <v>334</v>
       </c>
       <c r="K39" t="s">
-        <v>297</v>
+        <v>335</v>
       </c>
       <c r="L39" t="s">
-        <v>298</v>
+        <v>336</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>299</v>
+        <v>337</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
@@ -3934,50 +4218,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>300</v>
+        <v>338</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>60314</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>10157</v>
+      </c>
+      <c r="C40" t="s">
+        <v>339</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>301</v>
+        <v>340</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>302</v>
+        <v>341</v>
       </c>
       <c r="J40" t="s">
-        <v>303</v>
+        <v>342</v>
       </c>
       <c r="K40" t="s">
-        <v>304</v>
+        <v>343</v>
       </c>
       <c r="L40" t="s">
-        <v>305</v>
+        <v>344</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>299</v>
+        <v>337</v>
       </c>
       <c r="O40" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P40" t="n">
         <v>4</v>
@@ -4001,50 +4289,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>305</v>
+        <v>344</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>60314</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>6449</v>
+      </c>
+      <c r="C41" t="s">
+        <v>345</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>306</v>
+        <v>346</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>307</v>
+        <v>347</v>
       </c>
       <c r="J41" t="s">
-        <v>308</v>
+        <v>348</v>
       </c>
       <c r="K41" t="s">
-        <v>309</v>
+        <v>349</v>
       </c>
       <c r="L41" t="s">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>311</v>
+        <v>351</v>
       </c>
       <c r="O41" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -4068,50 +4360,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>312</v>
+        <v>352</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>60314</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>125681</v>
+      </c>
+      <c r="C42" t="s">
+        <v>353</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>313</v>
+        <v>354</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>314</v>
+        <v>355</v>
       </c>
       <c r="J42" t="s">
-        <v>315</v>
+        <v>356</v>
       </c>
       <c r="K42" t="s">
-        <v>316</v>
+        <v>357</v>
       </c>
       <c r="L42" t="s">
-        <v>317</v>
+        <v>358</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>318</v>
+        <v>359</v>
       </c>
       <c r="O42" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -4135,50 +4431,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>317</v>
+        <v>358</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>60314</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>125682</v>
+      </c>
+      <c r="C43" t="s">
+        <v>360</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>319</v>
+        <v>361</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>320</v>
+        <v>362</v>
       </c>
       <c r="J43" t="s">
-        <v>321</v>
+        <v>363</v>
       </c>
       <c r="K43" t="s">
-        <v>322</v>
+        <v>364</v>
       </c>
       <c r="L43" t="s">
-        <v>323</v>
+        <v>365</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>324</v>
+        <v>366</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -4202,50 +4502,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>323</v>
+        <v>365</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>60314</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>125683</v>
+      </c>
+      <c r="C44" t="s">
+        <v>367</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>325</v>
+        <v>368</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>326</v>
+        <v>369</v>
       </c>
       <c r="J44" t="s">
-        <v>327</v>
+        <v>370</v>
       </c>
       <c r="K44" t="s">
-        <v>328</v>
+        <v>371</v>
       </c>
       <c r="L44" t="s">
-        <v>329</v>
+        <v>372</v>
       </c>
       <c r="M44" t="n">
         <v>2</v>
       </c>
       <c r="N44" t="s">
-        <v>330</v>
+        <v>373</v>
       </c>
       <c r="O44" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P44" t="n">
         <v>2</v>
@@ -4269,50 +4573,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>331</v>
+        <v>374</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>60314</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>125684</v>
+      </c>
+      <c r="C45" t="s">
+        <v>375</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>332</v>
+        <v>376</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>333</v>
+        <v>377</v>
       </c>
       <c r="J45" t="s">
-        <v>334</v>
+        <v>378</v>
       </c>
       <c r="K45" t="s">
-        <v>335</v>
+        <v>379</v>
       </c>
       <c r="L45" t="s">
-        <v>336</v>
+        <v>380</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>337</v>
+        <v>381</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P45" t="n">
         <v>4</v>
@@ -4336,50 +4644,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>338</v>
+        <v>382</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>60314</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>125685</v>
+      </c>
+      <c r="C46" t="s">
+        <v>383</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>339</v>
+        <v>384</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>340</v>
+        <v>385</v>
       </c>
       <c r="J46" t="s">
-        <v>341</v>
+        <v>386</v>
       </c>
       <c r="K46" t="s">
-        <v>342</v>
+        <v>387</v>
       </c>
       <c r="L46" t="s">
-        <v>343</v>
+        <v>388</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>344</v>
+        <v>389</v>
       </c>
       <c r="O46" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -4403,7 +4715,7 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>343</v>
+        <v>388</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_104.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_104.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="419">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,150 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Kelly N</t>
-  </si>
-  <si>
-    <t>06/06/2018</t>
+    <t>08/17/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r603865440-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
+  </si>
+  <si>
+    <t>56217</t>
+  </si>
+  <si>
+    <t>1675310</t>
+  </si>
+  <si>
+    <t>603865440</t>
+  </si>
+  <si>
+    <t>08/07/2018</t>
+  </si>
+  <si>
+    <t>Room for six!</t>
+  </si>
+  <si>
+    <t>Our family of six stayed in a suite with two queens and a fold out sofa.  Room was very clean.  Free breakfast was the typical powdered eggs, bacon, cereal, and pastries.  The waffle maker makes waffles in the shape of Texas!  It is hard to find a room for six, especially for $100.</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r587241817-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
+  </si>
+  <si>
+    <t>587241817</t>
+  </si>
+  <si>
+    <t>06/13/2018</t>
+  </si>
+  <si>
+    <t>First time stay there and it was VERY pleasant</t>
+  </si>
+  <si>
+    <t>The staff was friendly, the location is excellent, and both the breakfast and the room exceeded expectations.  What else is there?Easy access to the lake, and all roads, regardless of what direction your headed.Overall experience was a 5 star stay.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r584920052-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
+  </si>
+  <si>
+    <t>584920052</t>
+  </si>
+  <si>
+    <t>06/03/2018</t>
+  </si>
+  <si>
+    <t>Close to Canton First Monday</t>
+  </si>
+  <si>
+    <t>We had a girls trip to Canton and needed a clean, safe , reasonably priced place to stay.  This place was perfect. 19 miles from Canton, great breakfast, indoor pool and hot tub which felt great on our tired legs.  The desk told us about a local diner to eat which was great and less than a mile away.  Will use this hotel again on our next trip.  Eat at the "Bean and Beef".</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r583159415-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
+  </si>
+  <si>
+    <t>583159415</t>
+  </si>
+  <si>
+    <t>05/27/2018</t>
+  </si>
+  <si>
+    <t>Nice but could use some extra care</t>
+  </si>
+  <si>
+    <t>Really liked the 'suite' atmosphere of the room, very roomy &amp; pleasant.  The TV (cable) was good, the bed, pillows, etc. were also good.  The bathroom could have been a bit cleaner, though.  Mildew on the shower curtain was very apparent.  The small room coffee pot needed to be rinsed out (moldy coffee spots on the bottom).  Nothing much to choose from in this area, so it works okay if you need to stay in the area and the price was reasonable.  Hot breakfast was nice, but typical of this type of hotel.</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r578624609-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
+  </si>
+  <si>
+    <t>578624609</t>
+  </si>
+  <si>
+    <t>05/07/2018</t>
+  </si>
+  <si>
+    <t>I would stay there again.</t>
+  </si>
+  <si>
+    <t>Clean, extremely spacious room. Burned out light and dead phone were quickly fixed. Breakfast was typical and included hot scrambled eggs, sausage and biscuits. Service in dining area was would stay there again.wonderful. Desk help confused credit cards on our rooms at check in. Definitely needed more training. We would stay there again. Very reasonable rates for shopping at Canton.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r570629410-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
+  </si>
+  <si>
+    <t>570629410</t>
+  </si>
+  <si>
+    <t>04/02/2018</t>
+  </si>
+  <si>
+    <t>Problems</t>
+  </si>
+  <si>
+    <t>Not sure where to start.  The cable tv is not good.  Very few channels and some of those didn’t even work.  The WiFi does not reach the third floor so if you need it, it will not work there.  The breakfast is the cheapest food I have ever had.  The shower pressure is horrible.  And on our last night when we came in and turned on the lights in the bathroom a huge cockroach ran across the countertop.  The employees are very nice and the bed was comfortable but that is where it ends.  We have stayed in several hotels over the years and this was by far the worse.  The 2 star rating is solely for the employees and nice beds.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Not sure where to start.  The cable tv is not good.  Very few channels and some of those didn’t even work.  The WiFi does not reach the third floor so if you need it, it will not work there.  The breakfast is the cheapest food I have ever had.  The shower pressure is horrible.  And on our last night when we came in and turned on the lights in the bathroom a huge cockroach ran across the countertop.  The employees are very nice and the bed was comfortable but that is where it ends.  We have stayed in several hotels over the years and this was by far the worse.  The 2 star rating is solely for the employees and nice beds.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r565035331-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
+  </si>
+  <si>
+    <t>565035331</t>
+  </si>
+  <si>
+    <t>03/07/2018</t>
+  </si>
+  <si>
+    <t>Business Training with HPRN Network</t>
+  </si>
+  <si>
+    <t>I greatly appreciated the hospitality, comfort, and quiet here!  I was in Mabank for business, and the suite was very accommodating!  The Jacuzzi and Hot Tub was very relaxing at the end of my day.   I look forward to another stay soon.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r560038878-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
   </si>
   <si>
-    <t>56217</t>
-  </si>
-  <si>
-    <t>1675310</t>
-  </si>
-  <si>
     <t>560038878</t>
   </si>
   <si>
@@ -180,12 +309,6 @@
     <t>October 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>DonkArizona</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r539764550-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
   </si>
   <si>
@@ -201,15 +324,9 @@
     <t>When we drove up to the hotel, the parking area near the front door was taped off as the roof had fallen down. Check in was easy but as we entered our room, there were a few dead roaches in the bathroom. The room was a nice size but the bed sheets had some black spots all over but could be brushed off, not sure what it was. Woke up the next day and another roach had crawled in to the bathroom after already cleaning up the others. We then noticed black spots in the sink just like on the bed sheets. If in the area again, we will look elsewhere.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>When we drove up to the hotel, the parking area near the front door was taped off as the roof had fallen down. Check in was easy but as we entered our room, there were a few dead roaches in the bathroom. The room was a nice size but the bed sheets had some black spots all over but could be brushed off, not sure what it was. Woke up the next day and another roach had crawled in to the bathroom after already cleaning up the others. We then noticed black spots in the sink just like on the bed sheets. If in the area again, we will look elsewhere.More</t>
   </si>
   <si>
-    <t>anywho46</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r519674012-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
   </si>
   <si>
@@ -228,9 +345,6 @@
     <t>August 2017</t>
   </si>
   <si>
-    <t>TheYuckster</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r497201392-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
   </si>
   <si>
@@ -249,15 +363,9 @@
     <t>June 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>I will start off by saying that the person at the front desk was great. I ended up having to change rooms because the first room I was put in had black smears all over the table, and BOTH beds were stained and dirty...the sheets...the part you lay on. I was then moved to a second room that smelled like burned something. The breakfast was not good. Waffles and an empty coffee container. The person doing the breakfast just looked at me as I tried to squeeze the last of the coffee and did not say "oh, I will refill it". The person who took care of the breakfast had her blue tooth on, I guess she was on the phone. Will not be staying here again.More</t>
   </si>
   <si>
-    <t>HERMAN C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r471953593-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
   </si>
   <si>
@@ -276,9 +384,6 @@
     <t>April 2017</t>
   </si>
   <si>
-    <t>Sue7043</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r457463125-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
   </si>
   <si>
@@ -300,9 +405,6 @@
     <t>We went to visit family and hadn't stayed at this Comfort Suites mostly because of previous reviews and I was skeptical. We took the chance and stayed there this time and do not regret it at all! The folks at the desk were very pleasant and most helpful, the room was huge and very well kept. The bed was very comfortable and pillows excellent. The breakfast sure beat the one at the other major chain we had stayed at there in town as well and the staff in the dining area were so very polite and attentive. My only issue was when we first arrived and checked in went to the elevator pushed the 2nd floor button and the elevator didnt move nor did the light turn on, so we opened the door tried it again with another floor worked fine came back down pushed 2nd floor again and no movement, so we got out of the elevator quickly as I am very claustrophobic and went right to the desk and the young man was so kind went back in the elevator with my husband pushed the button like 3 or 4 times and it worked for him! I was so upset asked for another room on a different floor and they were sold out and the young man was so kind told us of the steps and apologized profusely. Well I calmed down and we used the stairs! It...We went to visit family and hadn't stayed at this Comfort Suites mostly because of previous reviews and I was skeptical. We took the chance and stayed there this time and do not regret it at all! The folks at the desk were very pleasant and most helpful, the room was huge and very well kept. The bed was very comfortable and pillows excellent. The breakfast sure beat the one at the other major chain we had stayed at there in town as well and the staff in the dining area were so very polite and attentive. My only issue was when we first arrived and checked in went to the elevator pushed the 2nd floor button and the elevator didnt move nor did the light turn on, so we opened the door tried it again with another floor worked fine came back down pushed 2nd floor again and no movement, so we got out of the elevator quickly as I am very claustrophobic and went right to the desk and the young man was so kind went back in the elevator with my husband pushed the button like 3 or 4 times and it worked for him! I was so upset asked for another room on a different floor and they were sold out and the young man was so kind told us of the steps and apologized profusely. Well I calmed down and we used the stairs! It was all and all a great stay!More</t>
   </si>
   <si>
-    <t>Pamelita7117</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r435340651-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
   </si>
   <si>
@@ -321,9 +423,6 @@
     <t>November 2016</t>
   </si>
   <si>
-    <t>Bob B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r434055435-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
   </si>
   <si>
@@ -342,9 +441,6 @@
     <t>July 2016</t>
   </si>
   <si>
-    <t>DianaSATX</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r424455084-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
   </si>
   <si>
@@ -363,15 +459,9 @@
     <t>September 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>Nice hotel located in quiet field close to highway intersection and short drive to Canton for First Monday Trade Days.  Also convenient to Cedar Creek Lake.  Room was spacious and clean.  Beds were very comfortable.  Staff was very friendly and helpful.  Hotel lobby ceiling appeared to still be in need of repair after recent Spring hail storm.  Otherwise very nice and clean.  Free breakfast provided offering waffles, eggs, sausage, cereal, yogurt and various breads.  Good enough for someone who isn't a big breakfast eater.Only complaint was indoor pool.  Hot tub had chunks chipped out of it and tile around rim was dirty. Didn't notice until after I sat in hot tub, so climbed out and just put legs in.   Pool floor was not very clean and water was extremely cold.  Too cold to swim.With exception of pool a nice place to stay.More</t>
   </si>
   <si>
-    <t>crazymomof2grls</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r413935583-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
   </si>
   <si>
@@ -387,9 +477,6 @@
     <t>The hotel had comfortable rooms that were good sized.  Breakfast was fine for a quick bite.  It was conveniently located.  Our family had 3 rooms, and everyone haf a good stay.  Would definitely stay there again.</t>
   </si>
   <si>
-    <t>K9sniffer</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r379216258-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
   </si>
   <si>
@@ -411,9 +498,6 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
-    <t>Jane S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r376887121-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
   </si>
   <si>
@@ -435,9 +519,6 @@
     <t>Stayed here many times for business purposes. Hotel is clean and relatively inexpensive, but there are some flaws here and there. The swallows nest under the roof overhang which leaves the sidewalk full of bird droppings. Not cute. The sun pieces through the east facing rooms (front of hotel) and can be a rude awakening in the early morning. The breakfast buffet doesn't offer a wide selection of food and its always the same. The indoor pool is overly chlorinated so be sure to rinse our your swim suit after use. This hotel is average and I don't expect much when I visit. Would be great if they could improve wifi.More</t>
   </si>
   <si>
-    <t>Ane R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r371570256-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
   </si>
   <si>
@@ -457,9 +538,6 @@
   </si>
   <si>
     <t>The Hotel has some issues. First they mowed down some trees, and left birds homeless, so of course the birds made nests under the eaves, and now poop on guests, the guest cars, and screech endlessly. The Manager is a lovely woman but she she has some issues with the help. Housekeeping will pass you by and NOT return if you have out the Do Not Disturb sign, even if you remove it and the y promise in writing to come back and do the room, they won't. Elsa King the housekeeper promised to check back and do the room but 12:00 noon came and went and nothing!  Had to beg for service from a very inexperienced desk clerk who was snotty about it, and finally ended up doing the room,. But not very well. No vacuum, no soap, no shampoo, etc. Doubt I will come back here again, and it's a shame.More</t>
-  </si>
-  <si>
-    <t>Arnold_Ziffel</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r364693468-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
@@ -489,9 +567,6 @@
 The building itself is suffering from water infiltration, leaving bad water stains in the top of the lobby.  The back porch just outside the back door is not only water stained but sagging.  These buildings are built out of Styrofoam and paper maché under stucco, and the tiniest leak cannot be...Choice Hotels is a brand I hardly know.  I've only recently begun to use them only because of location.  And, in 100% of those visits, the room quality was plenty good, but some idiosyncrasy about the ownership or their processes wound up throwing me overboard.  For me, it's typical to check in on a credit card, to establish guaranteed payment, then check out with cash.  This place did not warn me, and ran the total amount on my credit card.  Then, when I wanted to pay cash, they told me they don't accept cash.  However, the day before they were accepting cash for the canteen.  I call that double-standards.  I’m not accustomed to name brand chain hotels acting like Motel 6 or Super 8, but this one certainly is. I would like to commend the breakfast attendant for going beyond the call of duty. She was very interested in your liking your breakfast within the boundaries of the food in her kitchen.  I was duly impressed with her concern about the quality and conditions within her control.  I don't know what her name was, but hats off to her!The building itself is suffering from water infiltration, leaving bad water stains in the top of the lobby.  The back porch just outside the back door is not only water stained but sagging.  These buildings are built out of Styrofoam and paper maché under stucco, and the tiniest leak cannot be ignored.For reasons unknown, the cliff swallows have decided they like this place.  Hundreds of them have nested up at the top of the building.  They are a harmless little bird, but allowing them to nest on the building probably has a price tag.  But, there sure were a lot of them. Would I go back…maybe. Would I recommend them…maybe.  The room size was enormous, and things were in pretty good shape, but I left there less than delighted with them.More</t>
   </si>
   <si>
-    <t>DeeSteveTravels</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r356155097-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
   </si>
   <si>
@@ -510,9 +585,6 @@
     <t>March 2016</t>
   </si>
   <si>
-    <t>robertrj2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r337571272-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
   </si>
   <si>
@@ -531,9 +603,6 @@
     <t>December 2015</t>
   </si>
   <si>
-    <t>David L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r334156882-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
   </si>
   <si>
@@ -552,9 +621,6 @@
     <t>November 2015</t>
   </si>
   <si>
-    <t>Danny D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r282621003-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
   </si>
   <si>
@@ -573,9 +639,6 @@
     <t>June 2015</t>
   </si>
   <si>
-    <t>meda9s</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r275840819-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
   </si>
   <si>
@@ -597,9 +660,6 @@
     <t>My wife and I stayed here with some of our family over the weekend. I was very impressed with the hotel. It looks brand-new and is very nice inside. We were on the 3rd floor and the first thing you smell coming off the elevators is that new carpet smell. The rooms were very nice. The front desk attendant was very friendly and was able to give us a map with places to eat. The beds were a little high off the ground but very comfortable. There were plenty of pillows and the AC worked very well. There was a separate sitting area with couch and chairs and the TV had plenty of channels. The wifi was good and no issues. The bathroom was nice. Plenty of room and the shower had good water pressure. There was some issues with the water draining but it was just slow and no big deal. The complimentary breakfast they have was good. Cereal, waffles, scrambled eggs, and sausage. There was an attendant down by the food to assist you if there are any problems.  Overall a great place to stay. There are not very many options in Mabank so save yourself some time and just get you a room at the Comfort Suites.More</t>
   </si>
   <si>
-    <t>535kimmOH</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r267073440-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
   </si>
   <si>
@@ -618,9 +678,6 @@
     <t>April 2015</t>
   </si>
   <si>
-    <t>Lisamd01</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r266690444-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
   </si>
   <si>
@@ -636,9 +693,6 @@
     <t>Nora and Melissa made our hotel stay this weekend amazing! During our stay we had a hail storm and 70 mile an hour winds the staff was great at keeping things under control and guests safe! Cant possibly fit all the positives in 1 review! All I can say is that we highly recommend this hotel!</t>
   </si>
   <si>
-    <t>katie g</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r263286523-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
   </si>
   <si>
@@ -657,9 +711,6 @@
     <t>March 2015</t>
   </si>
   <si>
-    <t>Lori K</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r245008910-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
   </si>
   <si>
@@ -678,9 +729,6 @@
     <t>December 2014</t>
   </si>
   <si>
-    <t>MaybeinOz</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r242386697-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
   </si>
   <si>
@@ -699,9 +747,6 @@
     <t>November 2014</t>
   </si>
   <si>
-    <t>Molly J</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r235204418-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
   </si>
   <si>
@@ -720,9 +765,6 @@
     <t>October 2014</t>
   </si>
   <si>
-    <t>Jerry B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r232250008-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
   </si>
   <si>
@@ -747,9 +789,6 @@
     <t>Went to First Monday Trade Day (flea market) at Canton TX. Comfort Suites was best place near Canton. Comfortable bed. Beautiful large room. Breakfast was same old choices but the BIG pleasant surprise was staff made extra fluffy scrambled eggs and waffle was super fluffy as well. They say tomorrow Friday will be French Toast. Can't wait. More</t>
   </si>
   <si>
-    <t>Vthompson410</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r218557362-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
   </si>
   <si>
@@ -777,9 +816,6 @@
     <t>I was very surprised to find such a nice hotel room in this part of Texas. I was expecting more of a Motel 6 kind of room and got a clean, spacious comfortable room. I have to say that it was a bit pricey as it cost about the same as a 4 star hotel in Barcelona, Spain, but I have to remember that hotels are hard to find in this area. So, I guess the price was not unusually high.Loved the beds being so tall, although being short is a bit of a disadvantage. Just climb up the side and enjoy the comfort.The room was large enough that a family could stay in it and not be crowded. Glad it was just me though!More</t>
   </si>
   <si>
-    <t>CharcatB</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r216927767-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
   </si>
   <si>
@@ -807,19 +843,31 @@
     <t>I reserved 11 rooms for a weekend retreat at this hotel. I considered it a plus that it was away from the city center.  The location would allow us to focus on the tasks we needed to cover.The manager, Christine, was easy to work with.  The staff, especially, Aleia(sp), were top notch.  They were helpful from the time I made the reservation until we checked out.  The hotel's meeting room is very large and has countertops that made it easy for us to distribute materials and serve snacks.  We had a meeting for 60 people and the room accommodated us all very well. The rooms were first rate. Everyone who stayed over night commented on how large and nice the rooms were. All reported they'd slept well. My group was very pleased with all that was done to make our stay and meeting a good experience.  Thank you all.More</t>
   </si>
   <si>
-    <t>txrangersfan1981</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r210351143-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
   </si>
   <si>
     <t>210351143</t>
   </si>
   <si>
-    <t>June 14, 2014</t>
-  </si>
-  <si>
-    <t>gmariko</t>
+    <t>06/14/2014</t>
+  </si>
+  <si>
+    <t>Horrible Hotel</t>
+  </si>
+  <si>
+    <t>I had bugs in my room. There are hundreds of birds swarming the front of the hotel during the day.  No cell phone service with Verizon.  The internet is horrible.  Nothing in the hotel worked correctly.  The front desk people couldn't answer any question about the hotel, except the girl in the morning during the week.  She has been the only bright side.  I understand this is a Patel hotel and it doesn't get any cheaper than that last name, every time I see a hotel with that last name it has been a bad hotel.  This is the worst hotel I have ever stayed at.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>GM_Christine, General Manager at Comfort Suites Near Cedar Creek Lake, responded to this reviewResponded June 25, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 25, 2014</t>
+  </si>
+  <si>
+    <t>I had bugs in my room. There are hundreds of birds swarming the front of the hotel during the day.  No cell phone service with Verizon.  The internet is horrible.  Nothing in the hotel worked correctly.  The front desk people couldn't answer any question about the hotel, except the girl in the morning during the week.  She has been the only bright side.  I understand this is a Patel hotel and it doesn't get any cheaper than that last name, every time I see a hotel with that last name it has been a bad hotel.  This is the worst hotel I have ever stayed at.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r207651972-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
@@ -846,9 +894,6 @@
     <t>This hotel has a very friendly staff and the rooms are beautiful! Wouldn't stay anywhere else.Stayed for the weekend loved it! :-)The pool was clean and even made use of the exercise room.I also enjoyed the breakfast they offer. Saved us from having to spend eating out. More</t>
   </si>
   <si>
-    <t>freezequeen55</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r206859860-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
   </si>
   <si>
@@ -874,9 +919,6 @@
   </si>
   <si>
     <t>The hotel itself was very nice,  the rooms were great and bed so comfortable.  The staff was so helpful and accommodating in every respect.  We had a wedding party staying there and they we so nice.  The pool area was clean and nice and the breakfast was very good.More</t>
-  </si>
-  <si>
-    <t>linda g</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r205468994-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
@@ -909,9 +951,6 @@
 Since we had to be somewhere early, I asked for a late checkout so that we wouldn't...Arrived at the hotel fairly late on a Friday night.  Greeted by a very nice desk lady, who acknowledged us as being reward customers.  The first room she gave us was on the 2nd floor.  I asked how many floors the hotel had, and she said 3.  I asked to be moved to the top to avoid any potential for overhead noise.  She obliged.  We were surprised at the size of the room.  Plenty of room for me and two kids.  We noticed that the sofabed was not made up, and there was no sheets or blankets in the room.  We were too tired to call, so we just piled into the King bed.  Seems they should keep the sofabeds made up?My children commented that the bed was kind of hard.  None of us had any problem sleeping though.  The hotel was mostly empty, so it was extremely quiet.  The third floor drink machine was out of water, so that was a bummer.  We had to get up @6 on Saturday morning.  Breakfast doesn't start until 7, so I dropped by the front desk to see if they could get the kids some muffins or something.  We got plenty of muffins, and whatever else we wanted (aside from the hot items that were not ready yet).  So the food was much appreciated!Since we had to be somewhere early, I asked for a late checkout so that we wouldn't have to check out at dawn.  We were allowed to stay until 2, so we were able to come back after our activity and check out at our leisure.Very nice, clean, quiet property.  All the staff we encountered were friendly and helpful.  Just wish there were snacks on premises, as there isn't much food close by.  But we will be staying here again when in the area.More</t>
   </si>
   <si>
-    <t>Rex T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r202082043-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
   </si>
   <si>
@@ -939,9 +978,6 @@
     <t>We stayed 4-19-14.  The pool was about 55-60 degrees.  The hot tub had so much chlorine in it when running the pumps everyone in  it was coughing and their eyes were burning so the pumps were turned back off.  when we said something to the front desk clerk he said he couldn't do anything to change it,  It was out of his control.  Instead of swimming the next morning, we opted on leaving.More</t>
   </si>
   <si>
-    <t>Jeff R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r163575410-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
   </si>
   <si>
@@ -960,9 +996,6 @@
     <t>June 2013</t>
   </si>
   <si>
-    <t>MoCity_12</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r148588304-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
   </si>
   <si>
@@ -978,9 +1011,6 @@
     <t xml:space="preserve">Biggest plus-this is a quiet hotel. Therooms are spacious. There is at microwave, fridge, and a sofa. Negatives - dead silverfish in the bathroom, toilet seat obviously dirty. I cleaned it. Bring your own pillow if you can. Their pillows are tiny squares. Breakfast had many choices. </t>
   </si>
   <si>
-    <t>Stephen A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r142701289-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
   </si>
   <si>
@@ -1002,9 +1032,6 @@
     <t>I stayed in room 211. I'd recommend it. This place is huge. But its Texas &amp; everything is. It's a fair walk to anything that's food / drink at night. The looby of the hotel is impressive with extra-large USA and  TEXAN flags on display. The massive rooms are clean &amp; comfortable. Slightly more pricey than others - at $92.66 for the night ( but I was sharing ) . It's well worth it though - the Pool &amp; Jacuzzi are the best I've been in. we had the pool area all to ourselves. In the morning the lady sorting out the breakfasts was really nice. Great food as well.  A perfect stay. This is a definite on my list !00%.More</t>
   </si>
   <si>
-    <t>Katie K</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r141953247-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
   </si>
   <si>
@@ -1023,9 +1050,6 @@
     <t>September 2012</t>
   </si>
   <si>
-    <t>Brent S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r133784299-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
   </si>
   <si>
@@ -1047,9 +1071,6 @@
     <t>Stayed here after a day at Ceder Creek Lake.  The hotel is very new.  The rooms are very nice with new furnishings.  Flat screen LG TV, Mini Fridge, and Microwave appear to be standard.   I will echo the sentiments of another reviewer....this hotel is very quiet.  The bed also was very comfortable. The breakfast was adequate and typical of most complimentary breakfasts at hotels of this type.  My only negatives were that the elevator was slow and they did not seem to be running the air conditioning in the hallways on the upper floors.  Very minor things that really did not affect much.   My wife did not care for the size of the pillows....some small square things.Overall, I would recommend this to anyone going to the Cedar Creek Lake or the Canton Trade Days.More</t>
   </si>
   <si>
-    <t>Rhonda S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r133542695-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
   </si>
   <si>
@@ -1065,9 +1086,6 @@
     <t>We stayed here on a trip to the Canton Trade Days. It was only a 20 minute drive to Canton. The room was nice, clean and cool. The bed was very comfy. The hotel was pretty quiet and located right off a main road. There is an indoor pool/jacuzzi area that was well kept. The breakfast was really good with waffles/bacon/eggs, fresh fruit. Only draw back was that there are very limited places to eat out other than fast food. Overall nice hotel and would stay again.</t>
   </si>
   <si>
-    <t>Linda B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r127703642-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
   </si>
   <si>
@@ -1089,7 +1107,91 @@
     <t>We stayed one night for a wedding nearby. Normally I wouldn't rate a hotel in a lower class so high, but this one was exceptional for the price. The rooms (suites) were large with a separate seating area, included a refrig &amp; microwave, everything in new condition and very clean. They served a full breakfast which included several hot items. The staff was friendly and the hotel was very laid-back. But the main reason I gave this hotel five stars is that it was QUIET... you could not hear through the walls. The room right next door to ours was having a party (we went to it for awhile) but you could not hear a thing from inside our room!  This is truly unheard of in a hotel. I had always just resolved myself to the fact that we would be awakened by noise from other rooms in a hotel. Not anymore!!  They set a new standard. My only complaint would be the really slow elevators. But for the super low price, you can't beat it!More</t>
   </si>
   <si>
-    <t>Vulcandude</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r127098435-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
+  </si>
+  <si>
+    <t>127098435</t>
+  </si>
+  <si>
+    <t>04/01/2012</t>
+  </si>
+  <si>
+    <t>Loved staying at this motel</t>
+  </si>
+  <si>
+    <t>Rented 2 rooms for 3 nights for Canton Trade Days -- We have already said this is where we will stay if we return to Canton Trade Days -- The breakfast is good -- all 3 days we stayed here breakfast had eggs and a meat along with all the other usual breakfast stuff -- I would have given it a 5 but we had to go down for towels or washcloths each night -- The room is big -- nice new and clean motel -- The drive to Canton 20 to 30 minutes -- The front desk staff were very nice --</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r125991518-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
+  </si>
+  <si>
+    <t>125991518</t>
+  </si>
+  <si>
+    <t>03/12/2012</t>
+  </si>
+  <si>
+    <t>Clean and restfull</t>
+  </si>
+  <si>
+    <t>While attending nCanton trade Fair days we spent the night at Comfort Suites in Mabank.  It was extreemely clean and all staff were very friendly and helpfulo.   The rooms were very large and the free breakfast in the morning was ample.  It was just a short, easy drive from Canton.  Restaurants were about 10 minutes away in Gun Barrel City.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r120482549-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
+  </si>
+  <si>
+    <t>120482549</t>
+  </si>
+  <si>
+    <t>11/11/2011</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>My sisters and I stayed here for our trip to Canton Trade Days.  It was a short and peaceful drive to Canton.  The room was very clean and comfortable.  The towels shaped like swans were a highlight for my sisters. We plan on staying here again next year.</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r120402800-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
+  </si>
+  <si>
+    <t>120402800</t>
+  </si>
+  <si>
+    <t>11/09/2011</t>
+  </si>
+  <si>
+    <t>Great Location</t>
+  </si>
+  <si>
+    <t>A friend and I stayed at this hotel based on reviews I read on tripadvisor. We were in Texas to experience our first "Trade Days" in Canton, 20 miles away. We were most pleased by the staff, our room and the local surroundings. The drive to and from the hotel from Canton was scenic and relaxing. The hotel itself was perfect! The staff was friendly and helpful, the room was all that we expected and the breakfast gave us the sustenance we needed for a day of shopping!! My friend and I felt secure there, which is always important for being able to unwind and relax. We definitely enjoyed our stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>A friend and I stayed at this hotel based on reviews I read on tripadvisor. We were in Texas to experience our first "Trade Days" in Canton, 20 miles away. We were most pleased by the staff, our room and the local surroundings. The drive to and from the hotel from Canton was scenic and relaxing. The hotel itself was perfect! The staff was friendly and helpful, the room was all that we expected and the breakfast gave us the sustenance we needed for a day of shopping!! My friend and I felt secure there, which is always important for being able to unwind and relax. We definitely enjoyed our stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r115076181-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
+  </si>
+  <si>
+    <t>115076181</t>
+  </si>
+  <si>
+    <t>07/06/2011</t>
+  </si>
+  <si>
+    <t>Awesome Hotel</t>
+  </si>
+  <si>
+    <t>We've stayed @ this Hotel probably a dozen times in the last year.  The staff has ALWAYS been very nice, the cleaning staff does a great job and the rooms are excellent.  The breakfast is always good and a block away there is a Shell station with a restaurant attached.  It's just down the road from Cedar Creek Lake and Canton First Mondays.  LOVE this place.  There isn't a pool and that's the only downfall I can think of....</t>
+  </si>
+  <si>
+    <t>June 2011</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r86597407-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
@@ -1110,9 +1212,6 @@
     <t>October 2010</t>
   </si>
   <si>
-    <t>Sportsmom76</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r80581659-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
   </si>
   <si>
@@ -1131,9 +1230,6 @@
     <t>September 2010</t>
   </si>
   <si>
-    <t>mikeag96</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r67481145-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
   </si>
   <si>
@@ -1155,9 +1251,6 @@
     <t>Very new hotel, has potential, but there were lots of problems.  Seems like things were done "on the cheap" to finish the hotel.  The air conditioner did not properly cool the room (think it was too small), there were exposed wires in our room.  The gym equipment was not working properly.  The pool had a big sign not to operate the hot tub.  The breakfast was consistently out of food.  This was not their fault, but they had water in the lobby during the week before we stayed there, so there were giant fans everywhere.  The hallway was not air conditioned, so waiting for the elevator was very hot.That being said, the rooms were finished out decently, and the beds were comfortable.  I had a steak from the "restaurant" (actually just the breakfast area with a few menu items during the evening) that was actually very good.  We might stay here again, but there is much to fix about this hotel.More</t>
   </si>
   <si>
-    <t>mygetaway</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r65965882-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
   </si>
   <si>
@@ -1179,9 +1272,6 @@
     <t>The price was right.  We spent $99 for two queen beds and sleeper sofa.  We are seniors traveling with our 2 small grandchildren.  The beds were comfortable.  Linens for the sleeper sofa had to be picked up at desk, but this was easy to do.  The breakfast was good but the cook had to really hustle to keep up with dwindling supplies (holiday weekend crowd).  Nice workout room.  Pool was standard indoor.  Small but useful after a hot day.  Hall noise due to family atmosphere.Complained to Comfort staff about unlocked laundry chutes on each floor.   Laundry was expensive (minimum of $2.00 to dry bathing suits that hadn't dried overnight.  No handy restaurants next door, but can be found about 5 - 10 minutes away.More</t>
   </si>
   <si>
-    <t>MrsDT91</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56217-d1675310-r60701117-Comfort_Suites_Near_Cedar_Creek_Lake-Mabank_Texas.html</t>
   </si>
   <si>
@@ -1189,9 +1279,6 @@
   </si>
   <si>
     <t>04/07/2010</t>
-  </si>
-  <si>
-    <t>Great Location</t>
   </si>
   <si>
     <t>The staff was so friendly felt right at home when i walked in the door i was greeted. Its a new hotel so they have kinks to work out which i'm sure they will. Great location for Canton Trades Days or to Dallas. WILL stay here again. Rates are excellent.</t>
@@ -1702,122 +1789,112 @@
       <c r="A2" t="n">
         <v>60314</v>
       </c>
-      <c r="B2" t="n">
-        <v>11336</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>4</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="O2" t="s">
-        <v>54</v>
-      </c>
-      <c r="P2" t="n">
-        <v>4</v>
-      </c>
+      <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>4</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>60314</v>
       </c>
-      <c r="B3" t="n">
-        <v>125658</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>59</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>60</v>
       </c>
-      <c r="M3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O3" t="s">
-        <v>61</v>
-      </c>
-      <c r="P3" t="s"/>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -1825,124 +1902,120 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>60314</v>
       </c>
-      <c r="B4" t="n">
-        <v>125659</v>
-      </c>
-      <c r="C4" t="s">
-        <v>63</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
         <v>64</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>65</v>
       </c>
-      <c r="J4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K4" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4" t="s">
-        <v>68</v>
-      </c>
       <c r="M4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="O4" t="s">
-        <v>54</v>
-      </c>
-      <c r="P4" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>2</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>60314</v>
       </c>
-      <c r="B5" t="n">
-        <v>17104</v>
-      </c>
-      <c r="C5" t="s">
-        <v>70</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
         <v>71</v>
       </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
-        <v>72</v>
-      </c>
-      <c r="J5" t="s">
-        <v>73</v>
-      </c>
-      <c r="K5" t="s">
-        <v>74</v>
-      </c>
-      <c r="L5" t="s">
-        <v>75</v>
-      </c>
-      <c r="M5" t="n">
-        <v>2</v>
-      </c>
-      <c r="N5" t="s">
-        <v>76</v>
-      </c>
       <c r="O5" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" t="s"/>
-      <c r="S5" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
         <v>3</v>
@@ -1953,263 +2026,231 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>60314</v>
       </c>
-      <c r="B6" t="n">
-        <v>83974</v>
-      </c>
-      <c r="C6" t="s">
-        <v>79</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J6" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="K6" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="L6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="O6" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
-      <c r="R6" t="n">
-        <v>5</v>
-      </c>
+      <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>5</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>60314</v>
       </c>
-      <c r="B7" t="n">
-        <v>125660</v>
-      </c>
-      <c r="C7" t="s">
-        <v>86</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="J7" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="K7" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="L7" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="M7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="O7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P7" t="n">
-        <v>4</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>4</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>60314</v>
       </c>
-      <c r="B8" t="n">
-        <v>125661</v>
-      </c>
-      <c r="C8" t="s">
-        <v>94</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="J8" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="K8" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="L8" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="O8" t="s">
-        <v>54</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>5</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>5</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>60314</v>
       </c>
-      <c r="B9" t="n">
-        <v>15091</v>
-      </c>
-      <c r="C9" t="s">
-        <v>101</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="J9" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="K9" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="L9" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="O9" t="s">
-        <v>61</v>
-      </c>
-      <c r="P9" t="s"/>
-      <c r="Q9" t="n">
-        <v>5</v>
-      </c>
-      <c r="R9" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -2217,66 +2258,60 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>60314</v>
       </c>
-      <c r="B10" t="n">
-        <v>125662</v>
-      </c>
-      <c r="C10" t="s">
-        <v>108</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="J10" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="K10" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="L10" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="O10" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="P10" t="s"/>
-      <c r="Q10" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
       <c r="S10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -2284,54 +2319,50 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>60314</v>
       </c>
-      <c r="B11" t="n">
-        <v>125663</v>
-      </c>
-      <c r="C11" t="s">
-        <v>117</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="J11" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="K11" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="L11" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="O11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2345,125 +2376,123 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>60314</v>
       </c>
-      <c r="B12" t="n">
-        <v>2862</v>
-      </c>
-      <c r="C12" t="s">
-        <v>123</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="J12" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="K12" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="L12" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="O12" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
       <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>60314</v>
       </c>
-      <c r="B13" t="n">
-        <v>7193</v>
-      </c>
-      <c r="C13" t="s">
-        <v>131</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="J13" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="K13" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="L13" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="O13" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
       <c r="R13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2471,66 +2500,60 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>60314</v>
       </c>
-      <c r="B14" t="n">
-        <v>125664</v>
-      </c>
-      <c r="C14" t="s">
-        <v>139</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="J14" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="K14" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="L14" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="M14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="O14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P14" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q14" t="n">
         <v>4</v>
       </c>
+      <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2538,66 +2561,62 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>60314</v>
       </c>
-      <c r="B15" t="n">
-        <v>40909</v>
-      </c>
-      <c r="C15" t="s">
-        <v>147</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="J15" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="K15" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="L15" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>134</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="n">
         <v>3</v>
       </c>
-      <c r="N15" t="s">
-        <v>153</v>
-      </c>
-      <c r="O15" t="s">
-        <v>115</v>
-      </c>
-      <c r="P15" t="s"/>
       <c r="Q15" t="n">
         <v>5</v>
       </c>
       <c r="R15" t="s"/>
-      <c r="S15" t="n">
-        <v>4</v>
-      </c>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2605,66 +2624,62 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>60314</v>
       </c>
-      <c r="B16" t="n">
-        <v>125665</v>
-      </c>
-      <c r="C16" t="s">
-        <v>155</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="J16" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="K16" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="L16" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="O16" t="s">
-        <v>54</v>
-      </c>
-      <c r="P16" t="n">
-        <v>5</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="P16" t="s"/>
       <c r="Q16" t="n">
-        <v>3</v>
-      </c>
-      <c r="R16" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2672,64 +2687,56 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>60314</v>
       </c>
-      <c r="B17" t="n">
-        <v>125666</v>
-      </c>
-      <c r="C17" t="s">
-        <v>162</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="J17" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="K17" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="L17" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="O17" t="s">
-        <v>54</v>
-      </c>
-      <c r="P17" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P17" t="s"/>
       <c r="Q17" t="n">
         <v>5</v>
       </c>
-      <c r="R17" t="n">
-        <v>5</v>
-      </c>
+      <c r="R17" t="s"/>
       <c r="S17" t="n">
         <v>5</v>
       </c>
@@ -2743,54 +2750,50 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>60314</v>
       </c>
-      <c r="B18" t="n">
-        <v>5027</v>
-      </c>
-      <c r="C18" t="s">
-        <v>169</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="J18" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="K18" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="L18" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="O18" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2804,131 +2807,117 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>60314</v>
       </c>
-      <c r="B19" t="n">
-        <v>82152</v>
-      </c>
-      <c r="C19" t="s">
-        <v>176</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="J19" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="K19" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="L19" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="O19" t="s">
-        <v>54</v>
-      </c>
-      <c r="P19" t="n">
-        <v>4</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>5</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>60314</v>
       </c>
-      <c r="B20" t="n">
-        <v>125667</v>
-      </c>
-      <c r="C20" t="s">
-        <v>183</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="J20" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="K20" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="L20" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="O20" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="P20" t="s"/>
-      <c r="Q20" t="n">
-        <v>5</v>
-      </c>
-      <c r="R20" t="s"/>
-      <c r="S20" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2936,243 +2925,249 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>60314</v>
       </c>
-      <c r="B21" t="n">
-        <v>125668</v>
-      </c>
-      <c r="C21" t="s">
-        <v>191</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="J21" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="K21" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="L21" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N21" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="O21" t="s">
-        <v>54</v>
-      </c>
-      <c r="P21" t="s"/>
-      <c r="Q21" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
       <c r="R21" t="s"/>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>60314</v>
       </c>
-      <c r="B22" t="n">
-        <v>125669</v>
-      </c>
-      <c r="C22" t="s">
-        <v>198</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="J22" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="K22" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="L22" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="O22" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="P22" t="s"/>
-      <c r="Q22" t="s"/>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
       <c r="R22" t="s"/>
-      <c r="S22" t="s"/>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
       <c r="T22" t="s"/>
-      <c r="U22" t="s"/>
+      <c r="U22" t="n">
+        <v>3</v>
+      </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>60314</v>
       </c>
-      <c r="B23" t="n">
-        <v>125670</v>
-      </c>
-      <c r="C23" t="s">
-        <v>204</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="J23" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="K23" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="L23" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="O23" t="s">
-        <v>54</v>
-      </c>
-      <c r="P23" t="s"/>
-      <c r="Q23" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
       <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>60314</v>
       </c>
-      <c r="B24" t="n">
-        <v>8237</v>
-      </c>
-      <c r="C24" t="s">
-        <v>211</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="J24" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="K24" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="L24" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="O24" t="s">
-        <v>54</v>
-      </c>
-      <c r="P24" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
       <c r="Q24" t="n">
         <v>5</v>
       </c>
-      <c r="R24" t="s"/>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
       <c r="S24" t="n">
         <v>5</v>
       </c>
@@ -3186,54 +3181,50 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>60314</v>
       </c>
-      <c r="B25" t="n">
-        <v>125671</v>
-      </c>
-      <c r="C25" t="s">
-        <v>218</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="J25" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="K25" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="L25" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="M25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="O25" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3247,61 +3238,55 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>60314</v>
       </c>
-      <c r="B26" t="n">
-        <v>125672</v>
-      </c>
-      <c r="C26" t="s">
-        <v>225</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
       <c r="J26" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="K26" t="s">
-        <v>229</v>
+        <v>202</v>
       </c>
       <c r="L26" t="s">
-        <v>230</v>
+        <v>203</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="O26" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="P26" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q26" t="s"/>
       <c r="R26" t="s"/>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
@@ -3314,60 +3299,56 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>230</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>60314</v>
       </c>
-      <c r="B27" t="n">
-        <v>18833</v>
-      </c>
-      <c r="C27" t="s">
-        <v>232</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="J27" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="K27" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="L27" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="M27" t="n">
-        <v>4</v>
-      </c>
-      <c r="N27" t="s"/>
-      <c r="O27" t="s"/>
-      <c r="P27" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>210</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
       <c r="Q27" t="n">
         <v>5</v>
       </c>
-      <c r="R27" t="n">
-        <v>5</v>
-      </c>
+      <c r="R27" t="s"/>
       <c r="S27" t="n">
         <v>5</v>
       </c>
@@ -3378,192 +3359,168 @@
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s">
-        <v>238</v>
-      </c>
-      <c r="X27" t="s">
-        <v>239</v>
-      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>240</v>
+        <v>211</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>60314</v>
       </c>
-      <c r="B28" t="n">
-        <v>125673</v>
-      </c>
-      <c r="C28" t="s">
-        <v>241</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>242</v>
+        <v>212</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>243</v>
+        <v>213</v>
       </c>
       <c r="J28" t="s">
-        <v>244</v>
+        <v>214</v>
       </c>
       <c r="K28" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="L28" t="s">
-        <v>246</v>
+        <v>216</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>247</v>
+        <v>217</v>
       </c>
       <c r="O28" t="s">
-        <v>130</v>
-      </c>
-      <c r="P28" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
-      <c r="R28" t="n">
-        <v>3</v>
-      </c>
+      <c r="R28" t="s"/>
       <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>5</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s">
-        <v>248</v>
-      </c>
-      <c r="X28" t="s">
-        <v>249</v>
-      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>250</v>
+        <v>216</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>60314</v>
       </c>
-      <c r="B29" t="n">
-        <v>125674</v>
-      </c>
-      <c r="C29" t="s">
-        <v>251</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>252</v>
+        <v>218</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>253</v>
+        <v>219</v>
       </c>
       <c r="J29" t="s">
-        <v>254</v>
+        <v>220</v>
       </c>
       <c r="K29" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="L29" t="s">
-        <v>256</v>
+        <v>222</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>257</v>
+        <v>217</v>
       </c>
       <c r="O29" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
-      <c r="R29" t="n">
-        <v>5</v>
-      </c>
+      <c r="R29" t="s"/>
       <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>5</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s">
-        <v>258</v>
-      </c>
-      <c r="X29" t="s">
-        <v>259</v>
-      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>60314</v>
       </c>
-      <c r="B30" t="n">
-        <v>125675</v>
-      </c>
-      <c r="C30" t="s">
-        <v>261</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>262</v>
+        <v>223</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>263</v>
+        <v>224</v>
       </c>
       <c r="J30" t="s">
-        <v>264</v>
-      </c>
-      <c r="K30" t="s"/>
-      <c r="L30" t="s"/>
-      <c r="M30" t="s"/>
-      <c r="N30" t="s"/>
-      <c r="O30" t="s"/>
+        <v>225</v>
+      </c>
+      <c r="K30" t="s">
+        <v>226</v>
+      </c>
+      <c r="L30" t="s">
+        <v>227</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>228</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
       <c r="R30" t="s"/>
@@ -3573,58 +3530,59 @@
       <c r="V30" t="n">
         <v>0</v>
       </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>60314</v>
       </c>
-      <c r="B31" t="n">
-        <v>125676</v>
-      </c>
-      <c r="C31" t="s">
-        <v>265</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>266</v>
+        <v>229</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>267</v>
+        <v>230</v>
       </c>
       <c r="J31" t="s">
-        <v>268</v>
+        <v>231</v>
       </c>
       <c r="K31" t="s">
-        <v>269</v>
+        <v>232</v>
       </c>
       <c r="L31" t="s">
-        <v>270</v>
+        <v>233</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
-      <c r="N31" t="s"/>
-      <c r="O31" t="s"/>
-      <c r="P31" t="n">
-        <v>5</v>
-      </c>
+      <c r="N31" t="s">
+        <v>234</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
       <c r="Q31" t="n">
         <v>5</v>
       </c>
-      <c r="R31" t="n">
-        <v>5</v>
-      </c>
+      <c r="R31" t="s"/>
       <c r="S31" t="n">
         <v>5</v>
       </c>
@@ -3635,149 +3593,119 @@
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s">
-        <v>271</v>
-      </c>
-      <c r="X31" t="s">
-        <v>272</v>
-      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>273</v>
+        <v>233</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>60314</v>
       </c>
-      <c r="B32" t="n">
-        <v>125677</v>
-      </c>
-      <c r="C32" t="s">
-        <v>274</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>275</v>
+        <v>235</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>276</v>
+        <v>236</v>
       </c>
       <c r="J32" t="s">
-        <v>277</v>
+        <v>237</v>
       </c>
       <c r="K32" t="s">
-        <v>278</v>
+        <v>238</v>
       </c>
       <c r="L32" t="s">
-        <v>279</v>
+        <v>239</v>
       </c>
       <c r="M32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="O32" t="s">
-        <v>54</v>
-      </c>
-      <c r="P32" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>5</v>
-      </c>
-      <c r="R32" t="n">
-        <v>5</v>
-      </c>
-      <c r="S32" t="n">
-        <v>5</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="n">
-        <v>5</v>
-      </c>
+      <c r="U32" t="s"/>
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s">
-        <v>281</v>
-      </c>
-      <c r="X32" t="s">
-        <v>282</v>
-      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>283</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>60314</v>
       </c>
-      <c r="B33" t="n">
-        <v>125678</v>
-      </c>
-      <c r="C33" t="s">
-        <v>284</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>285</v>
+        <v>241</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>286</v>
+        <v>242</v>
       </c>
       <c r="J33" t="s">
-        <v>287</v>
+        <v>243</v>
       </c>
       <c r="K33" t="s">
-        <v>288</v>
+        <v>244</v>
       </c>
       <c r="L33" t="s">
-        <v>289</v>
+        <v>245</v>
       </c>
       <c r="M33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>280</v>
+        <v>246</v>
       </c>
       <c r="O33" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
       </c>
       <c r="Q33" t="n">
-        <v>4</v>
-      </c>
-      <c r="R33" t="n">
-        <v>4</v>
-      </c>
-      <c r="S33" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
         <v>5</v>
@@ -3785,149 +3713,129 @@
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s">
-        <v>290</v>
-      </c>
-      <c r="X33" t="s">
-        <v>291</v>
-      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>292</v>
+        <v>245</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>60314</v>
       </c>
-      <c r="B34" t="n">
-        <v>125679</v>
-      </c>
-      <c r="C34" t="s">
-        <v>293</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>294</v>
+        <v>247</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>295</v>
+        <v>248</v>
       </c>
       <c r="J34" t="s">
-        <v>296</v>
+        <v>249</v>
       </c>
       <c r="K34" t="s">
-        <v>297</v>
+        <v>250</v>
       </c>
       <c r="L34" t="s">
-        <v>298</v>
+        <v>251</v>
       </c>
       <c r="M34" t="n">
-        <v>2</v>
-      </c>
-      <c r="N34" t="s">
-        <v>299</v>
-      </c>
-      <c r="O34" t="s">
-        <v>115</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N34" t="s"/>
+      <c r="O34" t="s"/>
       <c r="P34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>300</v>
+        <v>252</v>
       </c>
       <c r="X34" t="s">
-        <v>301</v>
+        <v>253</v>
       </c>
       <c r="Y34" t="s">
-        <v>302</v>
+        <v>254</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>60314</v>
       </c>
-      <c r="B35" t="n">
-        <v>15230</v>
-      </c>
-      <c r="C35" t="s">
-        <v>303</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>304</v>
+        <v>255</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>305</v>
+        <v>256</v>
       </c>
       <c r="J35" t="s">
-        <v>306</v>
+        <v>257</v>
       </c>
       <c r="K35" t="s">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="L35" t="s">
-        <v>308</v>
+        <v>259</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>309</v>
+        <v>260</v>
       </c>
       <c r="O35" t="s">
-        <v>54</v>
+        <v>159</v>
       </c>
       <c r="P35" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q35" t="s"/>
       <c r="R35" t="n">
-        <v>5</v>
-      </c>
-      <c r="S35" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
         <v>5</v>
@@ -3935,266 +3843,260 @@
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s"/>
-      <c r="X35" t="s"/>
+      <c r="W35" t="s">
+        <v>261</v>
+      </c>
+      <c r="X35" t="s">
+        <v>262</v>
+      </c>
       <c r="Y35" t="s">
-        <v>308</v>
+        <v>263</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>60314</v>
       </c>
-      <c r="B36" t="n">
-        <v>125680</v>
-      </c>
-      <c r="C36" t="s">
-        <v>310</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>311</v>
+        <v>264</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>312</v>
+        <v>265</v>
       </c>
       <c r="J36" t="s">
-        <v>313</v>
+        <v>266</v>
       </c>
       <c r="K36" t="s">
-        <v>314</v>
+        <v>267</v>
       </c>
       <c r="L36" t="s">
-        <v>315</v>
+        <v>268</v>
       </c>
       <c r="M36" t="n">
-        <v>3</v>
-      </c>
-      <c r="N36" t="s"/>
-      <c r="O36" t="s"/>
-      <c r="P36" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>269</v>
+      </c>
+      <c r="O36" t="s">
+        <v>90</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
       <c r="R36" t="n">
-        <v>4</v>
-      </c>
-      <c r="S36" t="n">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
+      <c r="W36" t="s">
+        <v>270</v>
+      </c>
+      <c r="X36" t="s">
+        <v>271</v>
+      </c>
       <c r="Y36" t="s">
-        <v>315</v>
+        <v>272</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>60314</v>
       </c>
-      <c r="B37" t="n">
-        <v>54534</v>
-      </c>
-      <c r="C37" t="s">
-        <v>316</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>317</v>
+        <v>273</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>318</v>
+        <v>274</v>
       </c>
       <c r="J37" t="s">
-        <v>319</v>
+        <v>275</v>
       </c>
       <c r="K37" t="s">
-        <v>320</v>
+        <v>276</v>
       </c>
       <c r="L37" t="s">
-        <v>321</v>
+        <v>277</v>
       </c>
       <c r="M37" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>322</v>
+        <v>278</v>
       </c>
       <c r="O37" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="P37" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S37" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s"/>
-      <c r="X37" t="s"/>
+      <c r="W37" t="s">
+        <v>279</v>
+      </c>
+      <c r="X37" t="s">
+        <v>280</v>
+      </c>
       <c r="Y37" t="s">
-        <v>323</v>
+        <v>281</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>60314</v>
       </c>
-      <c r="B38" t="n">
-        <v>34400</v>
-      </c>
-      <c r="C38" t="s">
-        <v>324</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>325</v>
+        <v>282</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>326</v>
+        <v>283</v>
       </c>
       <c r="J38" t="s">
-        <v>327</v>
+        <v>284</v>
       </c>
       <c r="K38" t="s">
-        <v>328</v>
+        <v>285</v>
       </c>
       <c r="L38" t="s">
-        <v>329</v>
+        <v>286</v>
       </c>
       <c r="M38" t="n">
-        <v>2</v>
-      </c>
-      <c r="N38" t="s">
-        <v>330</v>
-      </c>
-      <c r="O38" t="s">
-        <v>77</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
       <c r="P38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s"/>
-      <c r="X38" t="s"/>
+      <c r="W38" t="s">
+        <v>287</v>
+      </c>
+      <c r="X38" t="s">
+        <v>288</v>
+      </c>
       <c r="Y38" t="s">
-        <v>329</v>
+        <v>289</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>60314</v>
       </c>
-      <c r="B39" t="n">
-        <v>18497</v>
-      </c>
-      <c r="C39" t="s">
-        <v>331</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>332</v>
+        <v>290</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>333</v>
+        <v>291</v>
       </c>
       <c r="J39" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
       <c r="K39" t="s">
-        <v>335</v>
+        <v>293</v>
       </c>
       <c r="L39" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>337</v>
+        <v>295</v>
       </c>
       <c r="O39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
@@ -4203,7 +4105,7 @@
         <v>5</v>
       </c>
       <c r="R39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S39" t="n">
         <v>5</v>
@@ -4215,60 +4117,60 @@
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s"/>
-      <c r="X39" t="s"/>
+      <c r="W39" t="s">
+        <v>296</v>
+      </c>
+      <c r="X39" t="s">
+        <v>297</v>
+      </c>
       <c r="Y39" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>60314</v>
       </c>
-      <c r="B40" t="n">
-        <v>10157</v>
-      </c>
-      <c r="C40" t="s">
-        <v>339</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>340</v>
+        <v>299</v>
       </c>
       <c r="G40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>341</v>
+        <v>300</v>
       </c>
       <c r="J40" t="s">
-        <v>342</v>
+        <v>301</v>
       </c>
       <c r="K40" t="s">
-        <v>343</v>
+        <v>302</v>
       </c>
       <c r="L40" t="s">
-        <v>344</v>
+        <v>303</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>337</v>
+        <v>295</v>
       </c>
       <c r="O40" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="P40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q40" t="n">
         <v>4</v>
@@ -4281,142 +4183,142 @@
       </c>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s"/>
-      <c r="X40" t="s"/>
+      <c r="W40" t="s">
+        <v>304</v>
+      </c>
+      <c r="X40" t="s">
+        <v>305</v>
+      </c>
       <c r="Y40" t="s">
-        <v>344</v>
+        <v>306</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>60314</v>
       </c>
-      <c r="B41" t="n">
-        <v>6449</v>
-      </c>
-      <c r="C41" t="s">
-        <v>345</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>346</v>
+        <v>307</v>
       </c>
       <c r="G41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
       <c r="J41" t="s">
-        <v>348</v>
+        <v>309</v>
       </c>
       <c r="K41" t="s">
-        <v>349</v>
+        <v>310</v>
       </c>
       <c r="L41" t="s">
-        <v>350</v>
+        <v>311</v>
       </c>
       <c r="M41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N41" t="s">
-        <v>351</v>
+        <v>312</v>
       </c>
       <c r="O41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="n">
         <v>4</v>
-      </c>
-      <c r="S41" t="n">
-        <v>5</v>
       </c>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s"/>
-      <c r="X41" t="s"/>
+      <c r="W41" t="s">
+        <v>313</v>
+      </c>
+      <c r="X41" t="s">
+        <v>314</v>
+      </c>
       <c r="Y41" t="s">
-        <v>352</v>
+        <v>315</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>60314</v>
       </c>
-      <c r="B42" t="n">
-        <v>125681</v>
-      </c>
-      <c r="C42" t="s">
-        <v>353</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="G42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>355</v>
+        <v>317</v>
       </c>
       <c r="J42" t="s">
-        <v>356</v>
+        <v>318</v>
       </c>
       <c r="K42" t="s">
-        <v>357</v>
+        <v>319</v>
       </c>
       <c r="L42" t="s">
-        <v>358</v>
+        <v>320</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>359</v>
+        <v>321</v>
       </c>
       <c r="O42" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="P42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q42" t="n">
         <v>5</v>
       </c>
       <c r="R42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S42" t="n">
         <v>5</v>
@@ -4431,70 +4333,62 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>358</v>
+        <v>320</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>60314</v>
       </c>
-      <c r="B43" t="n">
-        <v>125682</v>
-      </c>
-      <c r="C43" t="s">
-        <v>360</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>361</v>
+        <v>322</v>
       </c>
       <c r="G43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>362</v>
+        <v>323</v>
       </c>
       <c r="J43" t="s">
-        <v>363</v>
+        <v>324</v>
       </c>
       <c r="K43" t="s">
-        <v>364</v>
+        <v>325</v>
       </c>
       <c r="L43" t="s">
-        <v>365</v>
+        <v>326</v>
       </c>
       <c r="M43" t="n">
-        <v>5</v>
-      </c>
-      <c r="N43" t="s">
-        <v>366</v>
-      </c>
-      <c r="O43" t="s">
-        <v>54</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
       <c r="P43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R43" t="n">
         <v>4</v>
       </c>
       <c r="S43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -4502,70 +4396,66 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>365</v>
+        <v>326</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>60314</v>
       </c>
-      <c r="B44" t="n">
-        <v>125683</v>
-      </c>
-      <c r="C44" t="s">
-        <v>367</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>368</v>
+        <v>327</v>
       </c>
       <c r="G44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>369</v>
+        <v>328</v>
       </c>
       <c r="J44" t="s">
-        <v>370</v>
+        <v>329</v>
       </c>
       <c r="K44" t="s">
-        <v>371</v>
+        <v>330</v>
       </c>
       <c r="L44" t="s">
-        <v>372</v>
+        <v>331</v>
       </c>
       <c r="M44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>373</v>
+        <v>332</v>
       </c>
       <c r="O44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4573,66 +4463,62 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>374</v>
+        <v>333</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>60314</v>
       </c>
-      <c r="B45" t="n">
-        <v>125684</v>
-      </c>
-      <c r="C45" t="s">
-        <v>375</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>376</v>
+        <v>334</v>
       </c>
       <c r="G45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>377</v>
+        <v>335</v>
       </c>
       <c r="J45" t="s">
-        <v>378</v>
+        <v>336</v>
       </c>
       <c r="K45" t="s">
-        <v>379</v>
+        <v>337</v>
       </c>
       <c r="L45" t="s">
-        <v>380</v>
+        <v>338</v>
       </c>
       <c r="M45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N45" t="s">
-        <v>381</v>
+        <v>339</v>
       </c>
       <c r="O45" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="P45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
@@ -4644,54 +4530,50 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>382</v>
+        <v>338</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>60314</v>
       </c>
-      <c r="B46" t="n">
-        <v>125685</v>
-      </c>
-      <c r="C46" t="s">
-        <v>383</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>384</v>
+        <v>340</v>
       </c>
       <c r="G46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>385</v>
+        <v>341</v>
       </c>
       <c r="J46" t="s">
-        <v>386</v>
+        <v>342</v>
       </c>
       <c r="K46" t="s">
-        <v>387</v>
+        <v>343</v>
       </c>
       <c r="L46" t="s">
-        <v>388</v>
+        <v>344</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>389</v>
+        <v>345</v>
       </c>
       <c r="O46" t="s">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -4700,7 +4582,7 @@
         <v>5</v>
       </c>
       <c r="R46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S46" t="n">
         <v>5</v>
@@ -4715,7 +4597,807 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>60314</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>347</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>348</v>
+      </c>
+      <c r="J47" t="s">
+        <v>349</v>
+      </c>
+      <c r="K47" t="s">
+        <v>350</v>
+      </c>
+      <c r="L47" t="s">
+        <v>351</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>345</v>
+      </c>
+      <c r="O47" t="s">
+        <v>83</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>60314</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>352</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>353</v>
+      </c>
+      <c r="J48" t="s">
+        <v>354</v>
+      </c>
+      <c r="K48" t="s">
+        <v>355</v>
+      </c>
+      <c r="L48" t="s">
+        <v>356</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>357</v>
+      </c>
+      <c r="O48" t="s">
+        <v>83</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>60314</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>359</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>360</v>
+      </c>
+      <c r="J49" t="s">
+        <v>361</v>
+      </c>
+      <c r="K49" t="s">
+        <v>362</v>
+      </c>
+      <c r="L49" t="s">
+        <v>363</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>364</v>
+      </c>
+      <c r="O49" t="s">
+        <v>60</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>60314</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>365</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>366</v>
+      </c>
+      <c r="J50" t="s">
+        <v>367</v>
+      </c>
+      <c r="K50" t="s">
+        <v>368</v>
+      </c>
+      <c r="L50" t="s">
+        <v>369</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>364</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>60314</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>370</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>371</v>
+      </c>
+      <c r="J51" t="s">
+        <v>372</v>
+      </c>
+      <c r="K51" t="s">
+        <v>373</v>
+      </c>
+      <c r="L51" t="s">
+        <v>374</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>375</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>60314</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>376</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>377</v>
+      </c>
+      <c r="J52" t="s">
+        <v>378</v>
+      </c>
+      <c r="K52" t="s">
+        <v>379</v>
+      </c>
+      <c r="L52" t="s">
+        <v>380</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>375</v>
+      </c>
+      <c r="O52" t="s">
+        <v>60</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>60314</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>382</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>383</v>
+      </c>
+      <c r="J53" t="s">
+        <v>384</v>
+      </c>
+      <c r="K53" t="s">
+        <v>385</v>
+      </c>
+      <c r="L53" t="s">
+        <v>386</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>387</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>60314</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
         <v>388</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>389</v>
+      </c>
+      <c r="J54" t="s">
+        <v>390</v>
+      </c>
+      <c r="K54" t="s">
+        <v>391</v>
+      </c>
+      <c r="L54" t="s">
+        <v>392</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>393</v>
+      </c>
+      <c r="O54" t="s">
+        <v>83</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>60314</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>394</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>395</v>
+      </c>
+      <c r="J55" t="s">
+        <v>396</v>
+      </c>
+      <c r="K55" t="s">
+        <v>397</v>
+      </c>
+      <c r="L55" t="s">
+        <v>398</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>399</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>60314</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>400</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>401</v>
+      </c>
+      <c r="J56" t="s">
+        <v>402</v>
+      </c>
+      <c r="K56" t="s">
+        <v>403</v>
+      </c>
+      <c r="L56" t="s">
+        <v>404</v>
+      </c>
+      <c r="M56" t="n">
+        <v>2</v>
+      </c>
+      <c r="N56" t="s">
+        <v>405</v>
+      </c>
+      <c r="O56" t="s">
+        <v>83</v>
+      </c>
+      <c r="P56" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>2</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>3</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>2</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>60314</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>407</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>408</v>
+      </c>
+      <c r="J57" t="s">
+        <v>409</v>
+      </c>
+      <c r="K57" t="s">
+        <v>410</v>
+      </c>
+      <c r="L57" t="s">
+        <v>411</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>412</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>3</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>60314</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>414</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>415</v>
+      </c>
+      <c r="J58" t="s">
+        <v>416</v>
+      </c>
+      <c r="K58" t="s">
+        <v>379</v>
+      </c>
+      <c r="L58" t="s">
+        <v>417</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>418</v>
+      </c>
+      <c r="O58" t="s">
+        <v>60</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>417</v>
       </c>
     </row>
   </sheetData>
